--- a/historical_report/separate report/dpct1039_analysis/DPCT1039.xlsx
+++ b/historical_report/separate report/dpct1039_analysis/DPCT1039.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abc/Library/Mobile Documents/com~apple~CloudDocs/SSE/final project/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCL\jupyter\CTA-oneAPI\historical_report\separate report\dpct1039_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D1A22-BE0F-D54D-8722-27967CDA7137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C2893A8F-3465-3A45-9830-EED9500378E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="remove null" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="108">
   <si>
     <t>DPCT1039</t>
   </si>
@@ -567,12 +566,48 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>warning_code</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>line_in_file</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>dpct_line</t>
+  </si>
+  <si>
+    <t>dpct_code</t>
+  </si>
+  <si>
+    <t>manual_line</t>
+  </si>
+  <si>
+    <t>manual_code</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>accept the DPCT proposal</t>
+  </si>
+  <si>
+    <t>accept the DPCT alternative proposal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,25 +984,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11A73CE-2C1B-D24D-BDAA-CE5D38C22B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="B6" zoomScale="62" workbookViewId="0">
       <selection activeCell="F7" sqref="A1:L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.3046875" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
-    <col min="8" max="8" width="86.5" customWidth="1"/>
-    <col min="10" max="10" width="81.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="49.3046875" customWidth="1"/>
+    <col min="8" max="8" width="86.4609375" customWidth="1"/>
+    <col min="10" max="10" width="81.3046875" customWidth="1"/>
+    <col min="11" max="11" width="24.69140625" customWidth="1"/>
+    <col min="12" max="12" width="26.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="136">
+    <row r="1" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="136">
+    <row r="2" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136">
+    <row r="3" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="409.6">
+    <row r="4" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6">
+    <row r="5" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6">
+    <row r="6" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="409.6">
+    <row r="7" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="409.6">
+    <row r="8" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="409.6">
+    <row r="9" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="409.6">
+    <row r="10" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409.6">
+    <row r="11" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="409.6">
+    <row r="12" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="409.6">
+    <row r="13" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="409.6">
+    <row r="14" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6">
+    <row r="15" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="409.6">
+    <row r="16" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="409.6">
+    <row r="17" spans="1:12" ht="93" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="409.6">
+    <row r="18" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="409.6">
+    <row r="19" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="409.6">
+    <row r="20" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="409.6">
+    <row r="21" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="409.6">
+    <row r="22" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="409.6">
+    <row r="23" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="409.6">
+    <row r="24" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1897,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="409.6">
+    <row r="25" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="409.6">
+    <row r="26" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="409.6">
+    <row r="27" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="409.6">
+    <row r="28" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="409.6">
+    <row r="29" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="409.6">
+    <row r="30" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.6">
+    <row r="31" spans="1:12" ht="124" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2170,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="409.6">
+    <row r="32" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="409.6">
+    <row r="33" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="409.6">
+    <row r="34" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="409.6">
+    <row r="35" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="409.6">
+    <row r="36" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="409.6">
+    <row r="37" spans="1:12" ht="93" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" cm="1">
         <f t="array" ref="B38">SUMPRODUCT(1/COUNTIF(B1:B37,B1:B37))</f>
         <v>10.999999999999993</v>
@@ -2425,1275 +2466,1049 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F810BC3A-9FAD-0A4E-AD03-3501F0C309CD}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="409.6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="4">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5">
+        <v>86</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>113</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4">
+        <v>91</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>145</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5">
+        <v>150</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4">
+        <v>113</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>189</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>194</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4">
+        <v>147</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>56</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>61</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4">
+        <v>62</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>94</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5">
+        <v>99</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4">
+        <v>79</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="5">
+        <v>112</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4">
+        <v>87</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4">
+        <v>64</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4">
+        <v>181</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5">
+        <v>186</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="4">
+        <v>178</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>190</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5">
+        <v>195</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4">
+        <v>181</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4">
+        <v>198</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5">
+        <v>203</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4">
+        <v>183</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4">
+        <v>214</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="5">
+        <v>219</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="4">
+        <v>193</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4">
+        <v>236</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5">
+        <v>242</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="4">
+        <v>204</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4">
+        <v>280</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5">
+        <v>286</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="4">
+        <v>226</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4">
+        <v>288</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5">
+        <v>284</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="4">
+        <v>227</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4">
+        <v>310</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5">
+        <v>316</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="4">
+        <v>242</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4">
+        <v>321</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5">
+        <v>327</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="H19" s="4">
+        <v>246</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4">
+        <v>348</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="5">
+        <v>354</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="4">
+        <v>267</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4">
+        <v>370</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="5">
+        <v>375</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="4">
+        <v>276</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4">
+        <v>395</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="2" t="b">
-        <f t="shared" ref="L1:L32" si="0">EXACT(H1,J1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="409.6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
+      <c r="F22" s="5">
+        <v>400</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="4">
+        <v>290</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4">
+        <v>164</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="5">
+        <v>169</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="4">
+        <v>160</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4">
+        <v>183</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="5">
+        <v>188</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="4">
+        <v>172</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4">
+        <v>255</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5">
+        <v>260</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="4">
+        <v>228</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="4">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="5">
+        <v>84</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="H26" s="4">
+        <v>78</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="4">
+        <v>72</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="5">
+        <v>77</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="4">
+        <v>66</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>70</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="409.6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>113</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>118</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
+      <c r="J27" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="4">
         <v>91</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="409.6">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>145</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>150</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>113</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="409.6">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>189</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>194</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>147</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="409.6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>56</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>53</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="409.6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>71</v>
-      </c>
-      <c r="E7">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1">
-        <v>76</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="409.6">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>94</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>99</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>79</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="409.6">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="5">
+        <v>96</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="4">
+        <v>78</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E9">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1">
-        <v>112</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>87</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="409.6">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>68</v>
-      </c>
-      <c r="E10">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="409.6">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="4">
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="5">
+        <v>115</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="4">
+        <v>90</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4">
+        <v>128</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="5">
+        <v>133</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="4">
+        <v>101</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4">
+        <v>148</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="5">
+        <v>153</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="4">
+        <v>114</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="4">
+        <v>58</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="5">
+        <v>63</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="4">
         <v>45</v>
       </c>
-      <c r="D11">
-        <v>181</v>
-      </c>
-      <c r="E11">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1">
-        <v>186</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>178</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="409.6">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>190</v>
-      </c>
-      <c r="E12">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1">
-        <v>195</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12">
-        <v>181</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="409.6">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>198</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>203</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13">
-        <v>183</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="409.6">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>214</v>
-      </c>
-      <c r="E14">
-        <v>19</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1">
-        <v>219</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14">
-        <v>193</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="409.6">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>236</v>
-      </c>
-      <c r="E15">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="1">
-        <v>242</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15">
-        <v>204</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="409.6">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>280</v>
-      </c>
-      <c r="E16">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="1">
-        <v>286</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16">
-        <v>226</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="409.6">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>288</v>
-      </c>
-      <c r="E17">
-        <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1">
-        <v>284</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17">
-        <v>227</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="409.6">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>310</v>
-      </c>
-      <c r="E18">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1">
-        <v>316</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18">
-        <v>242</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="409.6">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>321</v>
-      </c>
-      <c r="E19">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1">
-        <v>327</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19">
-        <v>246</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="409.6">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>348</v>
-      </c>
-      <c r="E20">
-        <v>46</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1">
-        <v>354</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20">
-        <v>267</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="409.6">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>370</v>
-      </c>
-      <c r="E21">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="1">
-        <v>375</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21">
-        <v>276</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="409.6">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>395</v>
-      </c>
-      <c r="E22">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="1">
-        <v>400</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22">
-        <v>290</v>
-      </c>
-      <c r="J22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="409.6">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23">
-        <v>164</v>
-      </c>
-      <c r="E23">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="1">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23">
-        <v>160</v>
-      </c>
-      <c r="J23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="409.6">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24">
-        <v>183</v>
-      </c>
-      <c r="E24">
-        <v>53</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="1">
-        <v>188</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24">
-        <v>172</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="409.6">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25">
-        <v>255</v>
-      </c>
-      <c r="E25">
-        <v>53</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="1">
-        <v>260</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25">
-        <v>228</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="409.6">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26">
-        <v>79</v>
-      </c>
-      <c r="E26">
-        <v>60</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="1">
-        <v>84</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26">
-        <v>78</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="409.6">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27">
-        <v>72</v>
-      </c>
-      <c r="E27">
-        <v>64</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27">
-        <v>66</v>
-      </c>
-      <c r="J27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="409.6">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28">
+      <c r="I32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E28">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="1">
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="409.6">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29">
-        <v>110</v>
-      </c>
-      <c r="E29">
-        <v>64</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="1">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29">
-        <v>90</v>
-      </c>
-      <c r="J29" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="409.6">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30">
-        <v>128</v>
-      </c>
-      <c r="E30">
-        <v>64</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="1">
-        <v>133</v>
-      </c>
-      <c r="H30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30">
-        <v>101</v>
-      </c>
-      <c r="J30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="409.6">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31">
-        <v>148</v>
-      </c>
-      <c r="E31">
-        <v>64</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="1">
-        <v>153</v>
-      </c>
-      <c r="H31" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31">
-        <v>114</v>
-      </c>
-      <c r="J31" t="s">
-        <v>86</v>
-      </c>
-      <c r="K31" t="s">
-        <v>87</v>
-      </c>
-      <c r="L31" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="409.6">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32">
-        <v>58</v>
-      </c>
-      <c r="E32">
-        <v>69</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="1">
-        <v>63</v>
-      </c>
-      <c r="H32" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32">
-        <v>45</v>
-      </c>
-      <c r="J32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" cm="1">
-        <f t="array" ref="B33">SUMPRODUCT(1/COUNTIF(B1:B32,B1:B32))</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="C33" cm="1">
-        <f t="array" ref="C33">SUMPRODUCT(1/COUNTIF(C1:C32,C1:C32))</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="E33" cm="1">
-        <f t="array" ref="E33">SUMPRODUCT(1/COUNTIF(E1:E32,E1:E32))</f>
-        <v>25.999999999999996</v>
+      <c r="J32" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3890,13 +3705,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215B102C-F1D9-491F-A097-415B50A3BEE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215B102C-F1D9-491F-A097-415B50A3BEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="742903cd-b80a-47e3-8b40-5135074bb8ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92ADFC3D-CE32-4ABE-BA29-FF95FCF7EA89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92ADFC3D-CE32-4ABE-BA29-FF95FCF7EA89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61038B30-9091-47D4-A825-479E50BDF3C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61038B30-9091-47D4-A825-479E50BDF3C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>